--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4755" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4792" uniqueCount="810">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T14:34:38+00:00</t>
+    <t>2025-08-12T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -643,6 +643,22 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:posologieTextuelle</t>
+  </si>
+  <si>
+    <t>posologieTextuelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/medication/StructureDefinition/eu-rendered-instruction}
+</t>
+  </si>
+  <si>
+    <t>European extension for renderedDosageInstruction</t>
+  </si>
+  <si>
+    <t>Equivalent to FHIR R5 MedicationRequest.renderedDosageInstruction</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -2820,7 +2836,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO128"/>
+  <dimension ref="A1:AO129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4980,43 +4996,41 @@
         <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
       </c>
@@ -5064,7 +5078,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -5073,7 +5087,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>141</v>
@@ -5085,7 +5099,7 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -5103,7 +5117,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -5116,24 +5130,26 @@
         <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
@@ -5181,7 +5197,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -5193,30 +5209,30 @@
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -5224,31 +5240,31 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -5274,13 +5290,13 @@
         <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>81</v>
@@ -5298,13 +5314,13 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
@@ -5313,27 +5329,27 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5341,7 +5357,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>90</v>
@@ -5350,22 +5366,22 @@
         <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -5391,13 +5407,13 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -5415,10 +5431,10 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>90</v>
@@ -5430,16 +5446,16 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -5447,10 +5463,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5458,7 +5474,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
@@ -5467,22 +5483,22 @@
         <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5508,13 +5524,13 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -5532,10 +5548,10 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>90</v>
@@ -5547,16 +5563,16 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -5564,10 +5580,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5575,31 +5591,31 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5625,13 +5641,13 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -5649,13 +5665,13 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
@@ -5664,16 +5680,16 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>81</v>
@@ -5681,10 +5697,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5695,7 +5711,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -5704,18 +5720,20 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -5740,13 +5758,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -5764,13 +5782,13 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
@@ -5779,16 +5797,16 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -5796,10 +5814,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5816,23 +5834,21 @@
         <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5857,13 +5873,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -5881,7 +5897,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5896,16 +5912,16 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -5913,10 +5929,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5933,21 +5949,23 @@
         <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5996,7 +6014,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -6039,7 +6057,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>90</v>
@@ -6062,9 +6080,7 @@
       <c r="M28" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>278</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -6089,32 +6105,34 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>274</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>90</v>
@@ -6126,37 +6144,35 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>287</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>90</v>
@@ -6171,16 +6187,16 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -6206,31 +6222,29 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>90</v>
@@ -6245,30 +6259,30 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>81</v>
@@ -6290,16 +6304,16 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6325,11 +6339,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -6347,7 +6363,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>90</v>
@@ -6362,35 +6378,37 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>90</v>
@@ -6405,16 +6423,16 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>295</v>
+        <v>169</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6440,13 +6458,11 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
@@ -6464,7 +6480,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>90</v>
@@ -6479,27 +6495,27 @@
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6507,7 +6523,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>90</v>
@@ -6519,19 +6535,19 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6581,10 +6597,10 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>90</v>
@@ -6596,27 +6612,27 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>226</v>
+        <v>305</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6627,7 +6643,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -6639,15 +6655,17 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -6696,13 +6714,13 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
@@ -6711,27 +6729,27 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6742,7 +6760,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -6751,16 +6769,16 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6811,13 +6829,13 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
@@ -6826,27 +6844,27 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>325</v>
-      </c>
       <c r="AN34" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>327</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6854,7 +6872,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>90</v>
@@ -6869,13 +6887,13 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6926,7 +6944,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6941,27 +6959,27 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6969,7 +6987,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>90</v>
@@ -6981,16 +6999,16 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -7041,7 +7059,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -7056,16 +7074,16 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -7073,10 +7091,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7096,20 +7114,18 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>169</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>344</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -7134,13 +7150,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>345</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -7158,7 +7174,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -7173,16 +7189,16 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -7190,10 +7206,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7213,18 +7229,20 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>350</v>
+        <v>169</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -7249,13 +7267,13 @@
         <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
@@ -7273,7 +7291,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -7288,7 +7306,7 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>81</v>
@@ -7297,7 +7315,7 @@
         <v>353</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -7305,10 +7323,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7319,7 +7337,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -7331,7 +7349,7 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>169</v>
+        <v>355</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>356</v>
@@ -7339,9 +7357,7 @@
       <c r="M39" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="N39" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -7366,13 +7382,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -7390,13 +7406,13 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
@@ -7405,27 +7421,27 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>361</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>365</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7448,16 +7464,16 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>367</v>
+        <v>169</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7483,13 +7499,13 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -7507,7 +7523,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7522,27 +7538,27 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>226</v>
+        <v>367</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7562,18 +7578,20 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -7622,7 +7640,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7637,16 +7655,16 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AL41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -7654,10 +7672,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7680,7 +7698,7 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>104</v>
+        <v>379</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>380</v>
@@ -7737,7 +7755,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7752,13 +7770,13 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7769,10 +7787,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7795,13 +7813,13 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>383</v>
+        <v>104</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7852,7 +7870,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7867,13 +7885,13 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>386</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7884,10 +7902,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7898,7 +7916,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>81</v>
@@ -7910,7 +7928,7 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>209</v>
+        <v>388</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>389</v>
@@ -7919,9 +7937,7 @@
         <v>390</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>391</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7969,13 +7985,13 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
@@ -7984,13 +8000,13 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -8001,10 +8017,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8024,21 +8040,21 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="N45" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -8062,13 +8078,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -8086,7 +8102,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -8101,13 +8117,13 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>397</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -8118,10 +8134,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8132,7 +8148,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -8144,15 +8160,17 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -8177,13 +8195,13 @@
         <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>81</v>
+        <v>403</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
@@ -8201,13 +8219,13 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -8216,13 +8234,13 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -8233,10 +8251,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8259,13 +8277,13 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -8316,7 +8334,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -8331,13 +8349,13 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -8348,10 +8366,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8359,7 +8377,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>80</v>
@@ -8374,17 +8392,15 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>418</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -8433,7 +8449,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -8448,13 +8464,13 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -8465,10 +8481,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8476,10 +8492,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
@@ -8491,15 +8507,17 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>151</v>
+        <v>421</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -8548,28 +8566,28 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>153</v>
+        <v>419</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>424</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>154</v>
+        <v>425</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -8580,21 +8598,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -8606,17 +8624,15 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -8653,31 +8669,31 @@
         <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
@@ -8697,14 +8713,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>424</v>
+        <v>180</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8717,26 +8733,24 @@
         <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>425</v>
+        <v>181</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>426</v>
+        <v>182</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="O51" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8772,19 +8786,19 @@
         <v>81</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>427</v>
+        <v>158</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8805,7 +8819,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8823,26 +8837,26 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>429</v>
+        <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>430</v>
@@ -8850,9 +8864,11 @@
       <c r="M52" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="N52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>432</v>
+        <v>211</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8901,19 +8917,19 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
@@ -8922,21 +8938,21 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>434</v>
+        <v>133</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>435</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8959,17 +8975,17 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>150</v>
+        <v>434</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -9018,7 +9034,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -9039,21 +9055,21 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9064,7 +9080,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
@@ -9076,19 +9092,17 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -9113,13 +9127,13 @@
         <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>447</v>
+        <v>81</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>81</v>
@@ -9137,13 +9151,13 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>81</v>
@@ -9158,21 +9172,21 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9183,7 +9197,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -9195,16 +9209,20 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
       </c>
@@ -9228,13 +9246,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>81</v>
+        <v>452</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -9258,7 +9276,7 @@
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
@@ -9273,21 +9291,21 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9310,7 +9328,7 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>456</v>
+        <v>150</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>457</v>
@@ -9318,12 +9336,8 @@
       <c r="M56" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="N56" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>460</v>
-      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -9371,7 +9385,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -9392,21 +9406,21 @@
         <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>81</v>
+        <v>455</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9426,19 +9440,23 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>150</v>
+        <v>461</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>151</v>
+        <v>462</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
       </c>
@@ -9486,7 +9504,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>153</v>
+        <v>466</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9498,7 +9516,7 @@
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>81</v>
@@ -9507,7 +9525,7 @@
         <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>154</v>
+        <v>467</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -9518,21 +9536,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -9544,17 +9562,15 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -9591,31 +9607,31 @@
         <v>81</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
@@ -9635,14 +9651,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>424</v>
+        <v>180</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9655,26 +9671,24 @@
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>425</v>
+        <v>181</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>426</v>
+        <v>182</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="O59" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9710,19 +9724,19 @@
         <v>81</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>427</v>
+        <v>158</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9743,7 +9757,7 @@
         <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9754,14 +9768,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9774,23 +9788,25 @@
         <v>81</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>320</v>
+        <v>135</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O60" t="s" s="2">
-        <v>469</v>
+        <v>211</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9839,7 +9855,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9851,7 +9867,7 @@
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>81</v>
@@ -9860,7 +9876,7 @@
         <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>471</v>
+        <v>133</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9871,10 +9887,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9885,7 +9901,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9897,17 +9913,17 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9956,19 +9972,19 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>478</v>
+        <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
@@ -9977,7 +9993,7 @@
         <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9988,10 +10004,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10011,19 +10027,21 @@
         <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>150</v>
+        <v>478</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>151</v>
+        <v>479</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>152</v>
+        <v>480</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
@@ -10071,7 +10089,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>153</v>
+        <v>482</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -10083,7 +10101,7 @@
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>81</v>
+        <v>483</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
@@ -10092,7 +10110,7 @@
         <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>154</v>
+        <v>484</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -10103,21 +10121,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -10129,17 +10147,15 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -10176,31 +10192,31 @@
         <v>81</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
@@ -10220,23 +10236,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -10248,15 +10262,17 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>484</v>
+        <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>485</v>
+        <v>181</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -10293,16 +10309,16 @@
         <v>81</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>158</v>
@@ -10326,7 +10342,7 @@
         <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -10340,9 +10356,11 @@
         <v>487</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>81</v>
       </c>
@@ -10360,16 +10378,16 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10420,19 +10438,19 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>491</v>
+        <v>158</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>81</v>
@@ -10441,7 +10459,7 @@
         <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -10452,10 +10470,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10478,20 +10496,16 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>498</v>
-      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>81</v>
       </c>
@@ -10539,7 +10553,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -10560,7 +10574,7 @@
         <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -10571,10 +10585,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10597,16 +10611,20 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>81</v>
       </c>
@@ -10675,7 +10693,7 @@
         <v>81</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -10686,10 +10704,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10712,7 +10730,7 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>507</v>
@@ -10720,12 +10738,8 @@
       <c r="M68" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="N68" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>510</v>
-      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
       </c>
@@ -10773,7 +10787,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10794,7 +10808,7 @@
         <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -10805,10 +10819,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10831,19 +10845,19 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -10913,7 +10927,7 @@
         <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10924,10 +10938,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10950,16 +10964,20 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>110</v>
+        <v>511</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10983,31 +11001,31 @@
         <v>81</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>520</v>
+        <v>81</v>
       </c>
       <c r="Z70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -11028,7 +11046,7 @@
         <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -11039,10 +11057,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11065,66 +11083,64 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>494</v>
+        <v>110</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q71" t="s" s="2">
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -11145,7 +11161,7 @@
         <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -11182,7 +11198,7 @@
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>530</v>
@@ -11195,7 +11211,9 @@
       <c r="P72" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="R72" t="s" s="2">
         <v>81</v>
       </c>
@@ -11239,7 +11257,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -11260,7 +11278,7 @@
         <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -11271,10 +11289,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11297,13 +11315,13 @@
         <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11354,7 +11372,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -11375,7 +11393,7 @@
         <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -11386,10 +11404,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11412,13 +11430,13 @@
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11469,7 +11487,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -11490,7 +11508,7 @@
         <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -11501,10 +11519,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11527,13 +11545,13 @@
         <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>110</v>
+        <v>511</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11560,13 +11578,13 @@
         <v>81</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>520</v>
+        <v>81</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>521</v>
+        <v>81</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>81</v>
@@ -11584,7 +11602,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11605,7 +11623,7 @@
         <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>81</v>
@@ -11616,10 +11634,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11630,7 +11648,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>81</v>
@@ -11645,14 +11663,12 @@
         <v>110</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N76" t="s" s="2">
         <v>546</v>
       </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>81</v>
@@ -11677,35 +11693,37 @@
         <v>81</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="Y76" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="Z76" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF76" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="AA76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>548</v>
-      </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>81</v>
@@ -11720,7 +11738,7 @@
         <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>154</v>
+        <v>528</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -11731,10 +11749,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11757,16 +11775,16 @@
         <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11792,13 +11810,11 @@
         <v>81</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>81</v>
+        <v>552</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>81</v>
@@ -11816,7 +11832,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11848,10 +11864,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11874,7 +11890,7 @@
         <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>110</v>
+        <v>555</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>556</v>
@@ -11885,9 +11901,7 @@
       <c r="N78" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="O78" t="s" s="2">
-        <v>559</v>
-      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>81</v>
       </c>
@@ -11911,13 +11925,13 @@
         <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>560</v>
+        <v>81</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>561</v>
+        <v>81</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>81</v>
@@ -11935,7 +11949,7 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11956,7 +11970,7 @@
         <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>563</v>
+        <v>154</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
@@ -11967,10 +11981,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11981,7 +11995,7 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>81</v>
@@ -11993,16 +12007,20 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>565</v>
+        <v>110</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>562</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>81</v>
       </c>
@@ -12026,13 +12044,13 @@
         <v>81</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>81</v>
+        <v>565</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>81</v>
+        <v>566</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>81</v>
@@ -12050,13 +12068,13 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>81</v>
@@ -12071,7 +12089,7 @@
         <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
@@ -12082,10 +12100,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12108,7 +12126,7 @@
         <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>169</v>
+        <v>570</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>571</v>
@@ -12116,9 +12134,7 @@
       <c r="M80" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="N80" t="s" s="2">
-        <v>573</v>
-      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>81</v>
@@ -12143,13 +12159,13 @@
         <v>81</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>574</v>
+        <v>81</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>575</v>
+        <v>81</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>81</v>
@@ -12167,7 +12183,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -12188,7 +12204,7 @@
         <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
@@ -12199,10 +12215,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12225,16 +12241,16 @@
         <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>579</v>
+        <v>169</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12260,13 +12276,13 @@
         <v>81</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>81</v>
@@ -12284,7 +12300,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -12305,21 +12321,21 @@
         <v>81</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>587</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12342,20 +12358,18 @@
         <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>169</v>
+        <v>584</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>81</v>
       </c>
@@ -12379,13 +12393,13 @@
         <v>81</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>81</v>
@@ -12403,7 +12417,7 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -12424,21 +12438,21 @@
         <v>81</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12464,14 +12478,16 @@
         <v>169</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="O83" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>81</v>
@@ -12496,11 +12512,13 @@
         <v>81</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y83" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>598</v>
+      </c>
       <c r="Z83" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>81</v>
@@ -12518,7 +12536,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12539,21 +12557,21 @@
         <v>81</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12579,16 +12597,14 @@
         <v>169</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>81</v>
@@ -12617,7 +12633,7 @@
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>81</v>
@@ -12635,7 +12651,7 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12656,21 +12672,21 @@
         <v>81</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12681,7 +12697,7 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>81</v>
@@ -12693,16 +12709,20 @@
         <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>473</v>
+        <v>169</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>613</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>81</v>
       </c>
@@ -12726,13 +12746,11 @@
         <v>81</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>81</v>
+        <v>616</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>81</v>
@@ -12750,13 +12768,13 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>81</v>
@@ -12771,7 +12789,7 @@
         <v>81</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>81</v>
+        <v>618</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>81</v>
@@ -12796,7 +12814,7 @@
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>81</v>
@@ -12805,16 +12823,16 @@
         <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>150</v>
+        <v>478</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>151</v>
+        <v>621</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>152</v>
+        <v>622</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12865,19 +12883,19 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>153</v>
+        <v>623</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>81</v>
@@ -12886,32 +12904,32 @@
         <v>81</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>81</v>
+        <v>624</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>81</v>
@@ -12923,17 +12941,15 @@
         <v>81</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>81</v>
@@ -12970,31 +12986,31 @@
         <v>81</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>81</v>
@@ -13014,23 +13030,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>623</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>81</v>
@@ -13042,15 +13056,17 @@
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>624</v>
+        <v>135</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>625</v>
+        <v>181</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>81</v>
@@ -13087,16 +13103,16 @@
         <v>81</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>158</v>
@@ -13120,7 +13136,7 @@
         <v>81</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>81</v>
@@ -13134,9 +13150,11 @@
         <v>627</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>628</v>
+      </c>
       <c r="D89" t="s" s="2">
         <v>81</v>
       </c>
@@ -13154,21 +13172,19 @@
         <v>81</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>169</v>
+        <v>629</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>630</v>
-      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>81</v>
       </c>
@@ -13192,13 +13208,13 @@
         <v>81</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>631</v>
+        <v>81</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>632</v>
+        <v>81</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>81</v>
@@ -13216,19 +13232,19 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>633</v>
+        <v>158</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>81</v>
@@ -13243,15 +13259,15 @@
         <v>81</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>634</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13274,19 +13290,17 @@
         <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>636</v>
+        <v>169</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>639</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>81</v>
@@ -13311,29 +13325,31 @@
         <v>81</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>81</v>
+        <v>636</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>81</v>
+        <v>637</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AC90" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -13354,25 +13370,23 @@
         <v>81</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>613</v>
+        <v>81</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>644</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
         <v>81</v>
       </c>
@@ -13393,19 +13407,19 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="O91" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>81</v>
@@ -13442,19 +13456,17 @@
         <v>81</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="AC91" s="2"/>
       <c r="AD91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13475,24 +13487,24 @@
         <v>81</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>642</v>
+        <v>647</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>81</v>
@@ -13514,19 +13526,19 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>81</v>
@@ -13575,7 +13587,7 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13596,23 +13608,25 @@
         <v>81</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>642</v>
+        <v>647</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>652</v>
+      </c>
       <c r="D93" t="s" s="2">
         <v>81</v>
       </c>
@@ -13633,19 +13647,19 @@
         <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>81</v>
@@ -13682,17 +13696,19 @@
         <v>81</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AC93" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13713,25 +13729,23 @@
         <v>81</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>659</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
         <v>81</v>
       </c>
@@ -13752,19 +13766,19 @@
         <v>91</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>81</v>
@@ -13801,19 +13815,17 @@
         <v>81</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13834,24 +13846,24 @@
         <v>81</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>81</v>
@@ -13873,19 +13885,19 @@
         <v>91</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>81</v>
@@ -13934,7 +13946,7 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13955,24 +13967,24 @@
         <v>81</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>81</v>
@@ -13994,19 +14006,19 @@
         <v>91</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>81</v>
@@ -14055,7 +14067,7 @@
         <v>81</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -14076,23 +14088,25 @@
         <v>81</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>654</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>670</v>
+      </c>
       <c r="D97" t="s" s="2">
         <v>81</v>
       </c>
@@ -14113,19 +14127,19 @@
         <v>91</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>81</v>
@@ -14174,7 +14188,7 @@
         <v>81</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -14195,21 +14209,21 @@
         <v>81</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14229,19 +14243,23 @@
         <v>81</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>150</v>
+        <v>672</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>151</v>
+        <v>673</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+        <v>674</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>676</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>81</v>
       </c>
@@ -14289,7 +14307,7 @@
         <v>81</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>153</v>
+        <v>677</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -14301,7 +14319,7 @@
         <v>81</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>81</v>
@@ -14310,32 +14328,32 @@
         <v>81</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>154</v>
+        <v>678</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>81</v>
+        <v>679</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>81</v>
@@ -14347,17 +14365,15 @@
         <v>81</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>81</v>
@@ -14394,31 +14410,31 @@
         <v>81</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>81</v>
@@ -14438,21 +14454,21 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>81</v>
@@ -14461,18 +14477,20 @@
         <v>81</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>648</v>
+        <v>135</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>678</v>
+        <v>181</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>81</v>
@@ -14509,31 +14527,31 @@
         <v>81</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>680</v>
+        <v>158</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>81</v>
@@ -14542,7 +14560,7 @@
         <v>81</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>681</v>
+        <v>154</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>81</v>
@@ -14579,7 +14597,7 @@
         <v>91</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>683</v>
@@ -14694,7 +14712,7 @@
         <v>91</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>688</v>
@@ -14702,12 +14720,8 @@
       <c r="M102" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="N102" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>691</v>
-      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>81</v>
       </c>
@@ -14755,7 +14769,7 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14776,7 +14790,7 @@
         <v>81</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>81</v>
@@ -14787,10 +14801,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14813,17 +14827,19 @@
         <v>91</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>81</v>
@@ -14872,7 +14888,7 @@
         <v>81</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -14893,7 +14909,7 @@
         <v>81</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>81</v>
@@ -14927,19 +14943,21 @@
         <v>81</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>81</v>
       </c>
@@ -14987,7 +15005,7 @@
         <v>81</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -15005,10 +15023,10 @@
         <v>81</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>703</v>
+        <v>81</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>81</v>
@@ -15019,10 +15037,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15045,13 +15063,13 @@
         <v>81</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>150</v>
+        <v>705</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>151</v>
+        <v>706</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>152</v>
+        <v>707</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -15102,7 +15120,7 @@
         <v>81</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>153</v>
+        <v>704</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -15114,16 +15132,16 @@
         <v>81</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>81</v>
+        <v>708</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>154</v>
+        <v>709</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>81</v>
@@ -15134,21 +15152,21 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>81</v>
@@ -15160,17 +15178,15 @@
         <v>81</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>81</v>
@@ -15219,19 +15235,19 @@
         <v>81</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>81</v>
@@ -15251,14 +15267,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>424</v>
+        <v>180</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -15271,26 +15287,24 @@
         <v>81</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>425</v>
+        <v>181</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>426</v>
+        <v>182</v>
       </c>
       <c r="N107" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="O107" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>81</v>
       </c>
@@ -15338,7 +15352,7 @@
         <v>81</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>427</v>
+        <v>158</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -15359,7 +15373,7 @@
         <v>81</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>81</v>
@@ -15370,44 +15384,46 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>700</v>
+        <v>135</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>709</v>
+        <v>430</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>710</v>
+        <v>431</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="O108" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>81</v>
       </c>
@@ -15455,19 +15471,19 @@
         <v>81</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>708</v>
+        <v>432</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>81</v>
@@ -15476,7 +15492,7 @@
         <v>81</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>712</v>
+        <v>133</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>81</v>
@@ -15513,15 +15529,17 @@
         <v>81</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>150</v>
+        <v>705</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>151</v>
+        <v>714</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>715</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>716</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>81</v>
@@ -15570,7 +15588,7 @@
         <v>81</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>153</v>
+        <v>713</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -15582,7 +15600,7 @@
         <v>81</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>81</v>
@@ -15591,7 +15609,7 @@
         <v>81</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>154</v>
+        <v>717</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>81</v>
@@ -15602,21 +15620,21 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>81</v>
@@ -15628,17 +15646,15 @@
         <v>81</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>81</v>
@@ -15687,19 +15703,19 @@
         <v>81</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>81</v>
@@ -15719,14 +15735,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>424</v>
+        <v>180</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15739,26 +15755,24 @@
         <v>81</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>425</v>
+        <v>181</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>426</v>
+        <v>182</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="O111" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>81</v>
       </c>
@@ -15806,7 +15820,7 @@
         <v>81</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>427</v>
+        <v>158</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -15827,7 +15841,7 @@
         <v>81</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>81</v>
@@ -15838,42 +15852,46 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>717</v>
+        <v>135</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>718</v>
+        <v>430</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>81</v>
       </c>
@@ -15921,19 +15939,19 @@
         <v>81</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>716</v>
+        <v>432</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>81</v>
@@ -15942,7 +15960,7 @@
         <v>81</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>720</v>
+        <v>133</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>81</v>
@@ -16094,13 +16112,13 @@
         <v>81</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -16172,7 +16190,7 @@
         <v>81</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>81</v>
@@ -16183,10 +16201,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16209,20 +16227,16 @@
         <v>81</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="N115" t="s" s="2">
         <v>733</v>
       </c>
-      <c r="O115" t="s" s="2">
-        <v>734</v>
-      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>81</v>
       </c>
@@ -16270,7 +16284,7 @@
         <v>81</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -16288,10 +16302,10 @@
         <v>81</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>735</v>
+        <v>81</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>81</v>
@@ -16302,10 +16316,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16328,18 +16342,20 @@
         <v>81</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>565</v>
+        <v>735</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="N116" t="s" s="2">
         <v>738</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="O116" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="N116" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>81</v>
       </c>
@@ -16387,7 +16403,7 @@
         <v>81</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -16405,24 +16421,24 @@
         <v>81</v>
       </c>
       <c r="AL116" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AM116" t="s" s="2">
         <v>741</v>
       </c>
-      <c r="AM116" t="s" s="2">
-        <v>742</v>
-      </c>
       <c r="AN116" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>743</v>
+        <v>81</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16445,15 +16461,17 @@
         <v>81</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>717</v>
+        <v>570</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="N117" t="s" s="2">
         <v>745</v>
       </c>
-      <c r="M117" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>81</v>
@@ -16502,7 +16520,7 @@
         <v>81</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16520,24 +16538,24 @@
         <v>81</v>
       </c>
       <c r="AL117" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="AM117" t="s" s="2">
         <v>747</v>
       </c>
-      <c r="AM117" t="s" s="2">
+      <c r="AN117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO117" t="s" s="2">
         <v>748</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>749</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16563,14 +16581,12 @@
         <v>722</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>751</v>
       </c>
-      <c r="M118" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>753</v>
-      </c>
+      <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>81</v>
@@ -16619,7 +16635,7 @@
         <v>81</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
@@ -16637,24 +16653,24 @@
         <v>81</v>
       </c>
       <c r="AL118" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO118" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16677,15 +16693,17 @@
         <v>81</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>757</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>758</v>
       </c>
-      <c r="M119" t="s" s="2">
-        <v>759</v>
-      </c>
-      <c r="N119" s="2"/>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>81</v>
@@ -16734,7 +16752,7 @@
         <v>81</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
@@ -16752,13 +16770,13 @@
         <v>81</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>81</v>
+        <v>759</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>760</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>81</v>
@@ -16792,13 +16810,13 @@
         <v>81</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>700</v>
+        <v>762</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16867,13 +16885,13 @@
         <v>81</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>764</v>
+        <v>81</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>765</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>81</v>
+        <v>359</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>81</v>
@@ -16907,13 +16925,13 @@
         <v>81</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>150</v>
+        <v>705</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>151</v>
+        <v>767</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>152</v>
+        <v>768</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -16964,7 +16982,7 @@
         <v>81</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>153</v>
+        <v>766</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -16976,16 +16994,16 @@
         <v>81</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>81</v>
+        <v>769</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>154</v>
+        <v>770</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>81</v>
@@ -16996,21 +17014,21 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>81</v>
@@ -17022,17 +17040,15 @@
         <v>81</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>81</v>
@@ -17081,19 +17097,19 @@
         <v>81</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>81</v>
@@ -17113,14 +17129,14 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>424</v>
+        <v>180</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17133,26 +17149,24 @@
         <v>81</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>425</v>
+        <v>181</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>426</v>
+        <v>182</v>
       </c>
       <c r="N123" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="O123" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>81</v>
       </c>
@@ -17200,7 +17214,7 @@
         <v>81</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>427</v>
+        <v>158</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -17221,7 +17235,7 @@
         <v>81</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>81</v>
@@ -17232,44 +17246,46 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>579</v>
+        <v>135</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>770</v>
+        <v>430</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>771</v>
+        <v>431</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>772</v>
-      </c>
-      <c r="O124" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P124" t="s" s="2">
         <v>81</v>
       </c>
@@ -17293,13 +17309,13 @@
         <v>81</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>773</v>
+        <v>81</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>774</v>
+        <v>81</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>81</v>
@@ -17317,42 +17333,42 @@
         <v>81</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>769</v>
+        <v>432</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>764</v>
+        <v>81</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>775</v>
+        <v>133</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>776</v>
+        <v>81</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17360,7 +17376,7 @@
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>90</v>
@@ -17375,15 +17391,17 @@
         <v>81</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>169</v>
+        <v>584</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="N125" s="2"/>
+        <v>776</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>777</v>
+      </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>81</v>
@@ -17408,13 +17426,13 @@
         <v>81</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>81</v>
@@ -17432,10 +17450,10 @@
         <v>81</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>90</v>
@@ -17450,24 +17468,24 @@
         <v>81</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO125" t="s" s="2">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17490,13 +17508,13 @@
         <v>81</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>786</v>
+        <v>169</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -17523,13 +17541,13 @@
         <v>81</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>81</v>
+        <v>785</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>81</v>
+        <v>786</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>81</v>
@@ -17547,7 +17565,7 @@
         <v>81</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -17562,38 +17580,38 @@
         <v>102</v>
       </c>
       <c r="AK126" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO126" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>782</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>792</v>
+        <v>81</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>81</v>
@@ -17605,17 +17623,15 @@
         <v>81</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="L127" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>795</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>796</v>
-      </c>
+      <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>81</v>
@@ -17664,13 +17680,13 @@
         <v>81</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>81</v>
@@ -17679,13 +17695,13 @@
         <v>102</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>81</v>
+        <v>794</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>81</v>
+        <v>787</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>81</v>
@@ -17696,14 +17712,14 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>81</v>
+        <v>797</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -17722,16 +17738,16 @@
         <v>81</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>799</v>
       </c>
-      <c r="L128" t="s" s="2">
+      <c r="M128" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>802</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -17781,7 +17797,7 @@
         <v>81</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
@@ -17796,18 +17812,135 @@
         <v>102</v>
       </c>
       <c r="AK128" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO128" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
         <v>803</v>
       </c>
-      <c r="AL128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM128" t="s" s="2">
+      <c r="B129" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K129" t="s" s="2">
         <v>804</v>
       </c>
-      <c r="AN128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO128" t="s" s="2">
+      <c r="L129" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="O129" s="2"/>
+      <c r="P129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q129" s="2"/>
+      <c r="R129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO129" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T15:19:17+00:00</t>
+    <t>2025-08-12T15:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -456,6 +456,26 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>MedicationRequest.extension:renderedDosageInstruction</t>
+  </si>
+  <si>
+    <t>renderedDosageInstruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.renderedDosageInstruction}
+</t>
+  </si>
+  <si>
+    <t>Full representation of the dosage instructions</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>MedicationRequest.extension:treatmentIntent</t>
   </si>
   <si>
@@ -472,10 +492,6 @@
     <t>the overall intention of the treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>MedicationRequest.extension:treatmentIntent.id</t>
   </si>
   <si>
@@ -643,22 +659,6 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension:posologieTextuelle</t>
-  </si>
-  <si>
-    <t>posologieTextuelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/medication/StructureDefinition/eu-rendered-instruction}
-</t>
-  </si>
-  <si>
-    <t>European extension for renderedDosageInstruction</t>
-  </si>
-  <si>
-    <t>Equivalent to FHIR R5 MedicationRequest.renderedDosageInstruction</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -4048,7 +4048,7 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
@@ -4062,9 +4062,11 @@
         <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>81</v>
       </c>
@@ -4142,19 +4144,19 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>81</v>
@@ -4163,7 +4165,7 @@
         <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>81</v>
@@ -4174,10 +4176,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -4188,7 +4190,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>81</v>
@@ -4200,13 +4202,13 @@
         <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -4245,16 +4247,16 @@
         <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>158</v>
@@ -4263,13 +4265,13 @@
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>81</v>
@@ -4278,7 +4280,7 @@
         <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>81</v>
@@ -4289,10 +4291,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -4300,10 +4302,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
@@ -4315,24 +4317,22 @@
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>81</v>
@@ -4362,31 +4362,31 @@
         <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>81</v>
@@ -4395,7 +4395,7 @@
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -4406,50 +4406,50 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>81</v>
@@ -4467,13 +4467,13 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
@@ -4491,10 +4491,10 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>90</v>
@@ -4503,7 +4503,7 @@
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>81</v>
@@ -4523,16 +4523,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
@@ -4549,13 +4551,13 @@
         <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4582,13 +4584,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -4606,7 +4608,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -4618,7 +4620,7 @@
         <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>81</v>
@@ -4627,7 +4629,7 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -4638,21 +4640,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -4664,17 +4666,15 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -4711,16 +4711,16 @@
         <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>158</v>
@@ -4729,13 +4729,13 @@
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>81</v>
@@ -4744,7 +4744,7 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -4755,14 +4755,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4778,23 +4778,21 @@
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>81</v>
       </c>
@@ -4830,19 +4828,19 @@
         <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4854,7 +4852,7 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
@@ -4863,21 +4861,21 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4888,7 +4886,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
@@ -4900,19 +4898,19 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -4961,13 +4959,13 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
@@ -4982,25 +4980,23 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>81</v>
       </c>
@@ -5018,19 +5014,23 @@
         <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
       </c>
@@ -5078,19 +5078,19 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>81</v>
@@ -5099,13 +5099,13 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -5145,7 +5145,7 @@
         <v>210</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>211</v>
@@ -5489,7 +5489,7 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>235</v>
@@ -5723,7 +5723,7 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>253</v>
@@ -6423,7 +6423,7 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>281</v>
@@ -7232,7 +7232,7 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>347</v>
@@ -7464,7 +7464,7 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>361</v>
@@ -8160,7 +8160,7 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>400</v>
@@ -8624,13 +8624,13 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8681,7 +8681,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8702,7 +8702,7 @@
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -8720,7 +8720,7 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8742,13 +8742,13 @@
         <v>135</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8789,7 +8789,7 @@
         <v>138</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>81</v>
@@ -8798,7 +8798,7 @@
         <v>139</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8819,7 +8819,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8865,7 +8865,7 @@
         <v>431</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>211</v>
@@ -9092,7 +9092,7 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>442</v>
@@ -9209,7 +9209,7 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>448</v>
@@ -9328,7 +9328,7 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>457</v>
@@ -9562,13 +9562,13 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9619,7 +9619,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9640,7 +9640,7 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -9658,7 +9658,7 @@
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9680,13 +9680,13 @@
         <v>135</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9727,7 +9727,7 @@
         <v>138</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>81</v>
@@ -9736,7 +9736,7 @@
         <v>139</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9757,7 +9757,7 @@
         <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9803,7 +9803,7 @@
         <v>431</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>211</v>
@@ -10147,13 +10147,13 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10204,7 +10204,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -10225,7 +10225,7 @@
         <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -10243,7 +10243,7 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10265,13 +10265,13 @@
         <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10312,7 +10312,7 @@
         <v>138</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>81</v>
@@ -10321,7 +10321,7 @@
         <v>139</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -10342,7 +10342,7 @@
         <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -10438,7 +10438,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -11853,7 +11853,7 @@
         <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
@@ -11970,7 +11970,7 @@
         <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
@@ -12241,7 +12241,7 @@
         <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>576</v>
@@ -12475,7 +12475,7 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>594</v>
@@ -12594,7 +12594,7 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>604</v>
@@ -12629,7 +12629,7 @@
         <v>81</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
@@ -12709,7 +12709,7 @@
         <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>612</v>
@@ -12746,7 +12746,7 @@
         <v>81</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
@@ -12941,13 +12941,13 @@
         <v>81</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12998,7 +12998,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -13019,7 +13019,7 @@
         <v>81</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>81</v>
@@ -13037,7 +13037,7 @@
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -13059,13 +13059,13 @@
         <v>135</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -13106,7 +13106,7 @@
         <v>138</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>81</v>
@@ -13115,7 +13115,7 @@
         <v>139</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -13136,7 +13136,7 @@
         <v>81</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>81</v>
@@ -13232,7 +13232,7 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -13290,7 +13290,7 @@
         <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>633</v>
@@ -14365,13 +14365,13 @@
         <v>81</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14422,7 +14422,7 @@
         <v>81</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -14443,7 +14443,7 @@
         <v>81</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>81</v>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14483,13 +14483,13 @@
         <v>135</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14530,7 +14530,7 @@
         <v>138</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>81</v>
@@ -14539,7 +14539,7 @@
         <v>139</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14560,7 +14560,7 @@
         <v>81</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>81</v>
@@ -15178,13 +15178,13 @@
         <v>81</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15235,7 +15235,7 @@
         <v>81</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -15256,7 +15256,7 @@
         <v>81</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>81</v>
@@ -15274,7 +15274,7 @@
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -15296,13 +15296,13 @@
         <v>135</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15352,7 +15352,7 @@
         <v>81</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -15373,7 +15373,7 @@
         <v>81</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>81</v>
@@ -15419,7 +15419,7 @@
         <v>431</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>211</v>
@@ -15646,13 +15646,13 @@
         <v>81</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15703,7 +15703,7 @@
         <v>81</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15724,7 +15724,7 @@
         <v>81</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>81</v>
@@ -15742,7 +15742,7 @@
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15764,13 +15764,13 @@
         <v>135</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15820,7 +15820,7 @@
         <v>81</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -15841,7 +15841,7 @@
         <v>81</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>81</v>
@@ -15887,7 +15887,7 @@
         <v>431</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>211</v>
@@ -17040,13 +17040,13 @@
         <v>81</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -17097,7 +17097,7 @@
         <v>81</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -17118,7 +17118,7 @@
         <v>81</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>81</v>
@@ -17136,7 +17136,7 @@
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17158,13 +17158,13 @@
         <v>135</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -17214,7 +17214,7 @@
         <v>81</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -17235,7 +17235,7 @@
         <v>81</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>81</v>
@@ -17281,7 +17281,7 @@
         <v>431</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>211</v>
@@ -17508,7 +17508,7 @@
         <v>81</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L126" t="s" s="2">
         <v>783</v>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T15:54:36+00:00</t>
+    <t>2025-08-12T16:52:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:52:42+00:00</t>
+    <t>2025-08-13T14:10:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:10:49+00:00</t>
+    <t>2025-08-13T14:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:38:26+00:00</t>
+    <t>2025-08-13T16:08:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T16:08:05+00:00</t>
+    <t>2025-08-13T16:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T16:43:50+00:00</t>
+    <t>2025-08-14T09:57:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T09:57:22+00:00</t>
+    <t>2025-08-14T13:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T13:55:20+00:00</t>
+    <t>2025-08-14T14:15:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T14:15:22+00:00</t>
+    <t>2025-08-18T13:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T13:25:21+00:00</t>
+    <t>2025-08-18T17:36:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T17:36:35+00:00</t>
+    <t>2025-08-19T07:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T07:49:07+00:00</t>
+    <t>2025-08-19T08:39:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T08:39:15+00:00</t>
+    <t>2025-08-19T16:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -9316,7 +9316,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T16:40:37+00:00</t>
+    <t>2025-08-20T14:11:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T14:11:18+00:00</t>
+    <t>2025-08-20T15:16:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T15:16:03+00:00</t>
+    <t>2025-08-21T07:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:11:23+00:00</t>
+    <t>2025-08-21T07:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:13:53+00:00</t>
+    <t>2025-08-21T07:15:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:15:25+00:00</t>
+    <t>2025-08-21T07:17:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:17:21+00:00</t>
+    <t>2025-08-21T07:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:22:00+00:00</t>
+    <t>2025-08-21T07:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:24:06+00:00</t>
+    <t>2025-08-21T07:54:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
